--- a/uploads/reference-documents/AllToolsModelSerialBlank.xlsx
+++ b/uploads/reference-documents/AllToolsModelSerialBlank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Tool Name</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Serial Number 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations</t>
   </si>
 </sst>
 </file>
@@ -270,10 +273,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="A2:G43"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,6 +309,9 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
